--- a/docs/数据大小与删除时间关系.xlsx
+++ b/docs/数据大小与删除时间关系.xlsx
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="常规文件删除" sheetId="1" r:id="rId1"/>
+    <sheet name="删除软件" sheetId="3" r:id="rId2"/>
+    <sheet name="删除应用程序数据" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>软件名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +40,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（应用程序删除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（常规文件删除）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,7 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,19 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件大小(k)</t>
+    <t>删除时间(ms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除时间1(ms)</t>
+    <t>文件大小(KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除时间2(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均时间</t>
+    <t>zip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,8 +139,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -152,6 +178,1027 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>常规数据删除</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>常规文件删除!$B$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16870</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>729088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>常规文件删除!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C3B-49A6-A5EE-35EA5DDC8573}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1924774448"/>
+        <c:axId val="1924774864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1924774448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>文件大小</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(KB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924774864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1924774864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>删除时间</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1924774448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -417,160 +1464,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
-        <v>8</v>
+      <c r="D2">
+        <v>1739</v>
+      </c>
+      <c r="E2">
+        <v>4825</v>
+      </c>
+      <c r="F2">
+        <v>16870</v>
+      </c>
+      <c r="G2">
+        <v>56424</v>
+      </c>
+      <c r="H2">
+        <f>712*1024</f>
+        <v>729088</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>1739</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>4825</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>16870</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>56424</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
         <v>2</v>
       </c>
     </row>
@@ -578,5 +1561,70 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/数据大小与删除时间关系.xlsx
+++ b/docs/数据大小与删除时间关系.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\BITSSCompile2017\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\BITSSCompile2017\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -214,9 +214,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>常规数据删除</a:t>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Data Delete</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -376,12 +377,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>文件大小</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(KB)</a:t>
+                  <a:t>FIles Size(KB)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -502,12 +499,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>删除时间</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(ms)</a:t>
+                  <a:t>Delete Time(ms)</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -1467,7 +1460,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
